--- a/static/data/Não Contribuintes Visual.xlsx
+++ b/static/data/Não Contribuintes Visual.xlsx
@@ -483,149 +483,149 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>88113</v>
+        <v>88206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BR0015442</t>
+          <t>BR0026113</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SAO LUIZ ADM SHOPPING S/C LTDA</t>
+          <t>MANGUINHOS ADM DE BENS E CONSULTORI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1138.01</v>
+        <v>280.26</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>1138.01</v>
+        <v>350.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>88114</v>
+        <v>88208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BR1901219</t>
+          <t>BR0010977</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>IRMAOS KUNST CONSTRUCOES LTDA</t>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>38.25</v>
+        <v>2125.02</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>38.25</v>
+        <v>2125.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>88115</v>
+        <v>88211</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BR0026573</t>
+          <t>BR0025869</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>I2R STUDIO DE BIKE FORTALEZA LTDA</t>
+          <t>CONDOMINIO SOBERANE RESIDENCE, CORP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>47.29</v>
+        <v>793.61</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>47.29</v>
+        <v>793.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>88116</v>
+        <v>88212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BR0025553</t>
+          <t>BR0015419</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UNIMED VITORIA COOPERATIVA DE TRABA</t>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>4397.29</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.79</v>
+        <v>4397.29</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/Não Contribuintes Visual.xlsx
+++ b/static/data/Não Contribuintes Visual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,27 +479,32 @@
           <t>Valor Total DIFAL</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Data de vencimento</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>88206</v>
+        <v>101222</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BR0026113</t>
+          <t>BR0028719</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MANGUINHOS ADM DE BENS E CONSULTORI</t>
+          <t>DIAGNOSTICOS DA AMERICA S.A .</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,110 +512,143 @@
           <t>RJ</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>280.26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>70.06999999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>350.33</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.449,06</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2.112,26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10.561,32</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>88208</v>
+        <v>101223</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2125.02</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2125.02</v>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.888,67</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7.888,67</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>88211</v>
+        <v>101225</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BR0025869</t>
+          <t>BR0025613</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CONDOMINIO SOBERANE RESIDENCE, CORP</t>
+          <t>RIBAMAR PESTANA DOS REIS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>793.61</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>793.61</v>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>103,25</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25,81</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>129,06</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>88212</v>
+        <v>101226</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -618,14 +656,25 @@
           <t>MG</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>4397.29</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4397.29</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>265,34</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>265,34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/static/data/Não Contribuintes Visual.xlsx
+++ b/static/data/Não Contribuintes Visual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,81 +488,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>101222</v>
+        <v>101269</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BR0028719</t>
+          <t>BR0029080</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DIAGNOSTICOS DA AMERICA S.A .</t>
+          <t>LAGE BON'A EMPREENDIMENTOS IMOBILIA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.449,06</t>
+          <t>463,80</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.112,26</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10.561,32</t>
+          <t>463,80</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>101223</v>
+        <v>101271</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BR0028994</t>
+          <t>BR0029149</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
+          <t>LUCIANO DA SILVA - AR CONDICIONADO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.888,67</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -572,83 +572,83 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7.888,67</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>101225</v>
+        <v>101273</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BR0025613</t>
+          <t>BR0029174</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RIBAMAR PESTANA DOS REIS</t>
+          <t>FUNDACAO TORINO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>103,25</t>
+          <t>851,99</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25,81</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>129,06</t>
+          <t>851,99</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>101226</v>
+        <v>101274</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BR1514380</t>
+          <t>BR0029174</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
+          <t>FUNDACAO TORINO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>265,34</t>
+          <t>647,40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -668,12 +668,156 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>265,34</t>
+          <t>647,40</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>101275</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BR0023623</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HOSPITAL DE MEDICINA ESPECIALIZADA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>33,78</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>33,78</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>101276</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BR0029215</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PALAIS ROYAL DALLO EMPREENDIMENTOS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15,53</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>15,53</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>101277</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BR0029144</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TAXCO SERVICOS CONTABEIS S/S</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.044,75</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5.044,75</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
         </is>
       </c>
     </row>
